--- a/otmm_decimal/result_colab/result_existing_5195_1.0_6_59_ColabFree/a_b_5195_1.0_6_6.xlsx
+++ b/otmm_decimal/result_colab/result_existing_5195_1.0_6_59_ColabFree/a_b_5195_1.0_6_6.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\確率モデル\glycan\otmm_decimal\result_colab\result_existing_5195_1.0_6_59_ColabFree\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{21832E07-EC8E-422F-B59B-771EC16AFE14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE06E6B1-9C06-4E9C-9B7E-5DECCA8B0FD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22560" windowHeight="14440"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22560" windowHeight="14440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="a_b_5195_1.0_6_6" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+  </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -607,11 +620,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -659,7 +675,13 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -968,16 +990,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="3" width="9.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1">
         <v>-1.1399999999999999E-10</v>
       </c>
@@ -997,7 +1022,7 @@
         <v>-153</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1">
         <v>-116</v>
       </c>
@@ -1017,7 +1042,7 @@
         <v>-146</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1">
         <v>-277</v>
       </c>
@@ -1037,7 +1062,7 @@
         <v>-141</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>-232</v>
       </c>
@@ -1057,7 +1082,7 @@
         <v>-72.5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>-12.9</v>
       </c>
@@ -1077,7 +1102,7 @@
         <v>-95.5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>-54.5</v>
       </c>
@@ -1095,10 +1120,209 @@
       </c>
       <c r="F6" s="1">
         <v>-2.8299999999999999E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2</v>
+      </c>
+      <c r="E8" s="2">
+        <v>3</v>
+      </c>
+      <c r="F8" s="2">
+        <v>4</v>
+      </c>
+      <c r="G8" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="2">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <f>EXP(A1)</f>
+        <v>0.99999999988599997</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ref="C9:G9" si="0">EXP(B1)</f>
+        <v>2.852423339163565E-96</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>4.4085313314632264E-71</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>2.4069765506104637E-69</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>1.1341130933749783E-10</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>3.5722699376192174E-67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="2">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <f t="shared" ref="B10:G14" si="1">EXP(A2)</f>
+        <v>4.1863939993042314E-51</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>0.99762282995445761</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>7.3915715546281964E-4</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>3.3427955219162848E-80</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>1.6286562347882806E-3</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>3.9174696644503952E-64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="2">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="1"/>
+        <v>5.0168199269339963E-121</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>1.4788975056432133E-74</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>5.96629836401057E-72</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000118</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>1.0573808917921579E-215</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>5.8140404858959392E-62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="2">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="1"/>
+        <v>1.752589471741048E-101</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>3.1743585474772134E-60</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>8.5434950967321233E-2</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>0.91420540575782594</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>4.7640321137823273E-101</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>3.2632478610144009E-32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="2">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="1"/>
+        <v>2.498050325866635E-6</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>8.939487445212813E-35</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>1.1677812485237085E-60</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>1.2479464629129513E-47</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>0.99999741000335407</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>3.348705675813844E-42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="2">
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="1"/>
+        <v>2.1426475384166538E-24</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="1"/>
+        <v>1.4399772643985349E-25</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>2.8301801644431358E-4</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>1.8506011975819082E-6</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>4.4085313314632264E-71</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>0.9997170400407227</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18"/>
+  <conditionalFormatting sqref="B9:G14">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThanOrEqual">
+      <formula>0.3</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>